--- a/report/components used.xlsx
+++ b/report/components used.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sajadh personal\BE\sem VIII\project\Elderly_helping_Robot\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A70C451-E90D-4D98-853E-2B858459D409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0FD7A9-029A-47A3-9347-AA066AD43681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30011180-B868-45C4-ABBE-84F871875A3B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Arduino mega</t>
   </si>
@@ -101,15 +101,9 @@
     <t>welding works</t>
   </si>
   <si>
-    <t>acrylic pieces</t>
-  </si>
-  <si>
     <t>16sqft</t>
   </si>
   <si>
-    <t>misc</t>
-  </si>
-  <si>
     <t>6V, 4.5Ah</t>
   </si>
   <si>
@@ -131,7 +125,25 @@
     <t>DS1302</t>
   </si>
   <si>
-    <t>100 Ohms</t>
+    <t>3.5rpm</t>
+  </si>
+  <si>
+    <t>servo motor</t>
+  </si>
+  <si>
+    <t>capacitor</t>
+  </si>
+  <si>
+    <t>adaptor</t>
+  </si>
+  <si>
+    <t>foam sheet</t>
+  </si>
+  <si>
+    <t>gst in bill1</t>
+  </si>
+  <si>
+    <t>wire+ solder+ glue+ knife+etc</t>
   </si>
 </sst>
 </file>
@@ -489,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66BC1B4-B10C-47BD-BBA0-EDCCCC59F690}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="A1:D23"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +512,7 @@
     <col min="2" max="2" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -510,8 +522,11 @@
       <c r="D1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -519,211 +534,265 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -737,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -745,23 +814,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <v>99</v>
+      </c>
+      <c r="I24">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>668</v>
+      </c>
+      <c r="I25">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>400</v>
+      </c>
+      <c r="I26">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f>SUM(F1:F27)</f>
+        <v>8162</v>
+      </c>
+      <c r="I28">
+        <f>I27+I26+I25+I24</f>
+        <v>7658</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +914,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f3660cca-3ef7-47b5-b774-a9c6d3a28729" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC87732BAE99D345A01D0B2564F82638" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9472d1e2d03f7d89dbae11997ef547ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a19996f4-1efb-4730-9a1f-0b6ef06e0fde" xmlns:ns4="f3660cca-3ef7-47b5-b774-a9c6d3a28729" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0764f26a316faa3b3b22dcfd35368ed1" ns3:_="" ns4:_="">
     <xsd:import namespace="a19996f4-1efb-4730-9a1f-0b6ef06e0fde"/>
@@ -977,24 +1137,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F07DED2-541D-4029-95A0-DE1659AD4609}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a19996f4-1efb-4730-9a1f-0b6ef06e0fde"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f3660cca-3ef7-47b5-b774-a9c6d3a28729"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f3660cca-3ef7-47b5-b774-a9c6d3a28729" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DA4603E-CB06-465B-AF3D-7F652DB58362}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50BC6C56-C8C9-45D2-9E8D-C33C6CB6B874}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1011,29 +1179,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DA4603E-CB06-465B-AF3D-7F652DB58362}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F07DED2-541D-4029-95A0-DE1659AD4609}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a19996f4-1efb-4730-9a1f-0b6ef06e0fde"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f3660cca-3ef7-47b5-b774-a9c6d3a28729"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>